--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A06CAE6-43C2-4418-BC65-2B7CF18DEFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12659BDA-22C5-48A9-8048-9662B5D97B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12659BDA-22C5-48A9-8048-9662B5D97B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D89CCC-CBF7-4203-9974-699C61F53CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,25 +42,25 @@
     <t>ИНН</t>
   </si>
   <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
     <t>Серия и номер паспорта</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Петрович</t>
   </si>
 </sst>
 </file>
@@ -404,20 +404,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,18 +434,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -454,18 +454,18 @@
         <v>546</v>
       </c>
       <c r="F2">
-        <v>789</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>321</v>
@@ -474,7 +474,7 @@
         <v>654</v>
       </c>
       <c r="F3">
-        <v>987</v>
+        <v>76543</v>
       </c>
     </row>
   </sheetData>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D89CCC-CBF7-4203-9974-699C61F53CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5AED9-7ABA-40DF-A381-E1E60351FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Серия и номер паспорта</t>
+  </si>
+  <si>
+    <t>Сидиков</t>
+  </si>
+  <si>
+    <t>Александрович</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,7 +480,27 @@
         <v>654</v>
       </c>
       <c r="F3">
-        <v>76543</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>23321</v>
+      </c>
+      <c r="F4">
+        <v>9778</v>
       </c>
     </row>
   </sheetData>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5AED9-7ABA-40DF-A381-E1E60351FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F5956-1AE8-414E-B765-20293E417163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Фамилия</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
   </si>
   <si>
     <t>Иванович</t>
@@ -410,7 +407,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -440,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -448,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -465,13 +462,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>321</v>
@@ -485,13 +482,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>99</v>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F5956-1AE8-414E-B765-20293E417163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438DBE62-3505-4C5E-9034-CDE6C7E67CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Фамилия</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Имя</t>
   </si>
   <si>
-    <t>Отчество</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
@@ -45,25 +42,19 @@
     <t>Иванов</t>
   </si>
   <si>
-    <t>Иванович</t>
-  </si>
-  <si>
     <t>Петров</t>
   </si>
   <si>
     <t>Петр</t>
   </si>
   <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>Серия и номер паспорта</t>
-  </si>
-  <si>
     <t>Сидиков</t>
   </si>
   <si>
-    <t>Александрович</t>
+    <t>Антонов</t>
+  </si>
+  <si>
+    <t>Антон</t>
   </si>
 </sst>
 </file>
@@ -404,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,71 +424,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
       <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
         <v>546</v>
-      </c>
-      <c r="F2">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>321</v>
       </c>
       <c r="D3">
-        <v>321</v>
-      </c>
-      <c r="E3">
         <v>654</v>
-      </c>
-      <c r="F3">
-        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>23321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>23321</v>
-      </c>
-      <c r="F4">
-        <v>9778</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438DBE62-3505-4C5E-9034-CDE6C7E67CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1C8EC-78A6-4C82-B9E8-C1FF8320CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Фамилия</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
-    <t>ИНН</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
     <t>Петров</t>
   </si>
   <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Сидиков</t>
-  </si>
-  <si>
-    <t>Антонов</t>
-  </si>
-  <si>
-    <t>Антон</t>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>123-456-789 00</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>111-222-333 44</t>
+  </si>
+  <si>
+    <t>Омск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +70,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -412,75 +426,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>546</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>321</v>
-      </c>
-      <c r="D3">
-        <v>654</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>99</v>
-      </c>
-      <c r="D4">
-        <v>23321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>111</v>
-      </c>
-      <c r="D5">
-        <v>333</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1C8EC-78A6-4C82-B9E8-C1FF8320CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED0C0E-213F-48F9-86F7-F3F61AF88F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3098" windowWidth="14400" windowHeight="8182" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Иванов</t>
   </si>
   <si>
-    <t>Петров</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
@@ -51,7 +48,10 @@
     <t>111-222-333 44</t>
   </si>
   <si>
-    <t>Омск</t>
+    <t>омск</t>
+  </si>
+  <si>
+    <t>ПЕтров</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2"/>
       <c r="F1" s="1"/>
@@ -443,22 +443,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED0C0E-213F-48F9-86F7-F3F61AF88F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C9987-64EC-425A-806B-E82DC3646B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3098" windowWidth="14400" windowHeight="8182" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2708" yWindow="1500" windowWidth="14399" windowHeight="8183" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Фамилия</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>ПЕтров</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -435,7 +441,9 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -448,7 +456,9 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C9987-64EC-425A-806B-E82DC3646B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD63CF8-6063-440C-9B9B-C30EF0BFB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2708" yWindow="1500" windowWidth="14399" windowHeight="8183" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Фамилия</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>ПЕтров</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
 </sst>
 </file>
@@ -418,7 +412,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -441,9 +435,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -456,9 +448,7 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD63CF8-6063-440C-9B9B-C30EF0BFB981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DEE70-50B3-452D-959A-09EA74F9D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2708" yWindow="1500" windowWidth="14399" windowHeight="8183" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Фамилия</t>
   </si>
@@ -36,22 +36,40 @@
     <t>Иванов</t>
   </si>
   <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>123-456-789 00</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>111-222-333 44</t>
-  </si>
-  <si>
-    <t>омск</t>
-  </si>
-  <si>
-    <t>ПЕтров</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>111-111-111 11</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>222-222-222 22</t>
+  </si>
+  <si>
+    <t>Пётр</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>333-333-333 33</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>ДатаРождения</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>Ершов</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -126,7 +144,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -427,46 +446,74 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5">
+        <v>36526</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5">
+        <v>36924</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>37318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4444</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>38081</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flown9\PycharmProjects\PythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29DEE70-50B3-452D-959A-09EA74F9D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B31EE-F873-4F96-A66E-5389088708B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="11363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2160" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Пётр</t>
-  </si>
-  <si>
-    <t>Петров</t>
   </si>
   <si>
     <t>333-333-333 33</t>
@@ -431,20 +428,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" customWidth="1"/>
-    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -455,11 +452,11 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -473,43 +470,41 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="5">
         <v>36924</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>37318</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4444</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>38081</v>

--- a/ex1.xlsx
+++ b/ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlas4\PycharmProjects\Summer_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B31EE-F873-4F96-A66E-5389088708B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F25935-6331-4F17-A149-4787E283EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2160" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3900" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Имя</t>
   </si>
   <si>
-    <t>111-111-111 11</t>
-  </si>
-  <si>
     <t>Иван</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Ершов</t>
+  </si>
+  <si>
+    <t>111-111-111 118</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -472,10 +472,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5">
@@ -484,13 +484,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>37318</v>
@@ -501,10 +501,10 @@
         <v>4444</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>38081</v>
